--- a/biology/Zoologie/Cici_grand-chanteur/Cici_grand-chanteur.xlsx
+++ b/biology/Zoologie/Cici_grand-chanteur/Cici_grand-chanteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cici grand-chanteur (Tiaris olivaceus), également appelé Sporophile grand-chanteur, est une espèce de passereaux appartenant à la famille des Thraupidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure de 10 à 11,5 cm de longueur. Il présente un dimorphisme sexuel : femelle ne présentant pas de coloration noire sur la face et plus terne que le mâle.
 Le plumage est vert olive avec des traces jaunes sur les ailes et la queue. Deux longs sourcils jaunes bordés de noir partent du bec vers les zones auriculaires. La gorge est jaune orangé et la poitrine noire (tout comme le front chez le mâle). Les flancs sont gris. Les yeux sont marron, le court bec conique noir et les pattes gris sombre.
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit à Cuba, comme un de ses noms l'indique, mais aussi à la Jamaïque, à Haïti, sur la côte orientale du Mexique, sur les Grandes Antilles et en Amérique centrale jusqu'à l'ouest du Venezuela.
 </t>
@@ -574,7 +590,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente les prairies et les cultures jusqu'à 2 000 m d'altitude.
 </t>
@@ -605,7 +623,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce consomme surtout des graines mais aussi des insectes. Comme elle se nourrit également de canne à sucre, elle est considérée comme un fléau agricole.
 </t>
